--- a/quizzes/ls03_line_graphs/ls03_line_graphs_theory_quiz/fr_quiz.xlsx
+++ b/quizzes/ls03_line_graphs/ls03_line_graphs_theory_quiz/fr_quiz.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Ce quiz teste votre compréhension de la leçon 3._x000D_
+          <t>&lt;p&gt;Ce quiz teste votre compréhension de la leçon 3.
 Bonne chance !&lt;/p&gt;&lt;p&gt;Contributeurs au quiz : &lt;a href="https://thegraphcourses.org/members/zachary" target="_blank"&gt;Zachary Anderson&lt;/a&gt;, &lt;a href="https://thegraphcourses.org/members/joy/" target="_blank"&gt;Joy Vaz&lt;/a&gt;, &lt;a href="https://thegraphcourses.org/members/kendavidn/" target="_blank"&gt;Kene David Nwosu&lt;/a&gt;, &lt;a href="https://thegraphcourses.org/members/imane/" target="_blank"&gt;Imane Bensouda Korachi&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
@@ -506,30 +506,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;div id="a" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_line()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;geom_line()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>&lt;div id="b" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_linegraph()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;geom_linegraph()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>&lt;div id="c" class="section level2"&gt;_x000D_
-&lt;h2&gt;C&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_scatter()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;geom_scatter()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>&lt;div id="d" class="section level2"&gt;_x000D_
-&lt;h2&gt;D&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_lines()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;geom_lines()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -539,17 +531,13 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Correct !&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_line()&lt;/code&gt; est utilisée pour créer des graphiques linéaires dans {ggplot2}&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Correct !&lt;/p&gt;
+&lt;p&gt;&lt;code&gt;geom_line()&lt;/code&gt; est utilisée pour créer des graphiques linéaires dans {ggplot2}</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_line()&lt;/code&gt; est utilisée pour créer des graphiques linéaires dans {ggplot2}&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;geom_line()&lt;/code&gt; est utilisée pour créer des graphiques linéaires dans {ggplot2}</t>
         </is>
       </c>
     </row>
@@ -574,16 +562,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;div id="a-1" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;VRAI&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>VRAI</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>&lt;div id="b-1" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;FAUX&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>FAUX</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -593,17 +577,13 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-1" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Correct !&lt;/p&gt;_x000D_
-&lt;p&gt;Les graphiques linéaires et de dispersion peuvent tous les deux être utilisés pour montrer la relation entre deux variables (si les variables sont numériques)&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Correct !&lt;/p&gt;
+&lt;p&gt;Les graphiques linéaires et de dispersion peuvent tous les deux être utilisés pour montrer la relation entre deux variables (si les variables sont numériques)</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-1" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Les graphiques linéaires et de dispersion peuvent tous les deux être utilisés pour montrer la relation entre deux variables (si les variables sont numériques)&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Les graphiques linéaires et de dispersion peuvent tous les deux être utilisés pour montrer la relation entre deux variables (si les variables sont numériques)</t>
         </is>
       </c>
     </row>
@@ -628,16 +608,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;div id="a-2" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;VRAI&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>VRAI</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>&lt;div id="b-2" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;FAUX&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>FAUX</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -647,16 +623,12 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-2" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Bravo !&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Bravo !</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-2" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Consultez le cours (ou d’autres ressources) pour voir des exemples sur les graphiques temporelles.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Consultez le cours (ou d’autres ressources) pour voir des exemples sur les graphiques temporelles.</t>
         </is>
       </c>
     </row>
@@ -681,16 +653,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;div id="a-3" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;FAUX&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>FAUX</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>&lt;div id="b-3" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;VRAI&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>VRAI</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -700,16 +668,12 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-3" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Bravo !&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Bravo !</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-3" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Consultez le cours (ou d’autres ressources) pour voir des exemples sur les graphiques temporelles.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Consultez le cours (ou d’autres ressources) pour voir des exemples sur les graphiques temporelles.</t>
         </is>
       </c>
     </row>
@@ -734,16 +698,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;div id="a-4" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;VRAI&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>VRAI</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>&lt;div id="b-4" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;FAUX&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>FAUX</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -753,20 +713,16 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-4" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Super !&lt;/p&gt;_x000D_
-&lt;p&gt;L’argument &lt;code&gt;linetype&lt;/code&gt; peut être défini avec des entiers ou des noms spécifiques.&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/line_types.png" width="700"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Super !&lt;/p&gt;
+&lt;p&gt;L’argument &lt;code&gt;linetype&lt;/code&gt; peut être défini avec des entiers ou des noms spécifiques.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/G66Y3lm.png" width="700"&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-4" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Les deux sont corrects !_x000D_
-L’argument &lt;code&gt;linetype&lt;/code&gt; peut être défini avec des entiers ou des noms spécifiques.&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/line_types.png" width="700"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Les deux sont corrects !
+L’argument &lt;code&gt;linetype&lt;/code&gt; peut être défini avec des entiers ou des noms spécifiques.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/eSOqAMH.png" width="700"&gt;</t>
         </is>
       </c>
     </row>
@@ -791,30 +747,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;div id="a-5" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_line(linetype = "dotted")&lt;/code&gt; ou &lt;code&gt;geom_line(linetype = 3)&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;geom_line(linetype = "dotted")&lt;/code&gt; ou &lt;code&gt;geom_line(linetype = 3)&lt;/code&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>&lt;div id="b-5" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_line(linetype = "dotted")&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;geom_line(linetype = "dotted")&lt;/code&gt;</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>&lt;div id="c-1" class="section level2"&gt;_x000D_
-&lt;h2&gt;C&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_line(linetype = 3)&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;geom_line(linetype = 3)&lt;/code&gt;</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>&lt;div id="d-1" class="section level2"&gt;_x000D_
-&lt;h2&gt;D&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_dotted_line()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;geom_dotted_line()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -824,21 +772,17 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-5" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Doublement bon !_x000D_
-Des entiers ou noms spécifiques peuvent être utilisés avec l’argument &lt;code&gt;linetype&lt;/code&gt; pour choisir le type de ligne._x000D_
-(La fonction &lt;code&gt;geom_dotted_line()&lt;/code&gt; n’existe pas.)&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/line_types.png" width="700"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Doublement bon !
+Des entiers ou noms spécifiques peuvent être utilisés avec l’argument &lt;code&gt;linetype&lt;/code&gt; pour choisir le type de ligne.
+(La fonction &lt;code&gt;geom_dotted_line()&lt;/code&gt; n’existe pas.)&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/baajD55.png" width="700"&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-5" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Des entiers ou noms spécifiques peuvent être utilisés avec l’argument &lt;code&gt;linetype&lt;/code&gt; pour choisir le type de ligne._x000D_
-(La fonction &lt;code&gt;geom_dotted_line()&lt;/code&gt; n’existe pas.)&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/line_types.png" width="700"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Des entiers ou noms spécifiques peuvent être utilisés avec l’argument &lt;code&gt;linetype&lt;/code&gt; pour choisir le type de ligne.
+(La fonction &lt;code&gt;geom_dotted_line()&lt;/code&gt; n’existe pas.)&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/qRWe2nB.png" width="700"&gt;</t>
         </is>
       </c>
     </row>
@@ -863,16 +807,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;div id="a-6" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;VRAI&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>VRAI</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>&lt;div id="b-6" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;FAUX&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>FAUX</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -882,28 +822,24 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-6" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Vous avez tout compris !_x000D_
-Essayez le graphique suivant comme exemple :&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = beaver1, _x000D_
-       mapping = aes(x = time, y = temp)) + _x000D_
-  geom_line() + _x000D_
-  geom_point()&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-7-1.png" width="672"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Vous avez tout compris !
+Essayez le graphique suivant comme exemple :&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = beaver1, 
+       mapping = aes(x = time, y = temp)) + 
+  geom_line() + 
+  geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/HSlTbCK.png" width="672"&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-6" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Consultez le cours pour voir des exemples._x000D_
-Vous pouvez également essayer le graphique suivant comme exemple :&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = beaver1, _x000D_
-       mapping = aes(x = time, y = temp)) + _x000D_
-  geom_line() + _x000D_
-  geom_point()&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-8-1.png" width="672"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Consultez le cours pour voir des exemples.
+Vous pouvez également essayer le graphique suivant comme exemple :&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = beaver1, 
+       mapping = aes(x = time, y = temp)) + 
+  geom_line() + 
+  geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/UGZrfMd.png" width="672"&gt;</t>
         </is>
       </c>
     </row>
@@ -928,16 +864,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;div id="a-7" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;FAUX&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>FAUX</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>&lt;div id="b-7" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;VRAI&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>VRAI</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -947,19 +879,15 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-7" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Vous avez tout bon !_x000D_
-Tant que les graphiques sont compatibles, vous pouvez les superposer._x000D_
-Cela peut être particulièrement utile pour illustrer des éléments d’intérêt de vos données.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Vous avez tout bon !
+Tant que les graphiques sont compatibles, vous pouvez les superposer.
+Cela peut être particulièrement utile pour illustrer des éléments d’intérêt de vos données.</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-7" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Tant que les graphiques sont compatibles, vous pouvez les superposer._x000D_
-Cela peut être particulièrement utile pour illustrer des éléments d’intérêt de vos données.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Tant que les graphiques sont compatibles, vous pouvez les superposer.
+Cela peut être particulièrement utile pour illustrer des éléments d’intérêt de vos données.</t>
         </is>
       </c>
     </row>
@@ -984,16 +912,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;div id="a-8" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;FAUX&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>FAUX</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>&lt;div id="b-8" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;VRAI&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>VRAI</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1003,17 +927,13 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-8" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;On garde le cap !&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;code&gt;linetype&lt;/code&gt; peut être utilisé à la fois comme mapping esthétique et esthétique fixe.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>On garde le cap !&lt;/p&gt;
+&lt;p&gt;&lt;code&gt;linetype&lt;/code&gt; peut être utilisé à la fois comme mapping esthétique et esthétique fixe.</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-8" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;linetype&lt;/code&gt; peut être utilisé à la fois comme mapping esthétique et esthétique fixe.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;linetype&lt;/code&gt; peut être utilisé à la fois comme mapping esthétique et esthétique fixe.</t>
         </is>
       </c>
     </row>
@@ -1038,16 +958,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;div id="a-9" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;FAUX&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>FAUX</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>&lt;div id="b-9" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;VRAI&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>VRAI</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1057,17 +973,13 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-9" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;On garde le cap !&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;code&gt;linetype&lt;/code&gt; peut être utilisé à la fois comme mapping esthétique et esthétique fixe.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>On garde le cap !&lt;/p&gt;
+&lt;p&gt;&lt;code&gt;linetype&lt;/code&gt; peut être utilisé à la fois comme mapping esthétique et esthétique fixe.</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-9" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;linetype&lt;/code&gt; peut être utilisé à la fois comme mapping esthétique et esthétique fixe.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;linetype&lt;/code&gt; peut être utilisé à la fois comme mapping esthétique et esthétique fixe.</t>
         </is>
       </c>
     </row>
@@ -1089,60 +1001,50 @@
         <is>
           <t>&lt;p&gt;{ggplot2} choisit automatiquement une échelle pour les mappings esthétiques comme la position x et y.&lt;/p&gt;
 &lt;p&gt;Par exemple, ici l’axe des x est divisé en intervalles de 5 ans.&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;# Créer un subset des données d'un seul pays à partir du dataset population intégré au package tidyr_x000D_
-afg_pop &amp;lt;- tidyr::population %&amp;gt;% filter(country == "Afghanistan")_x000D_
+&lt;pre class="r"&gt;&lt;code&gt;# Créer un subset des données d'un seul pays à partir du dataset population intégré au package tidyr
+afg_pop &amp;lt;- tidyr::population %&amp;gt;% filter(country == "Afghanistan")
 head(afg_pop)&lt;/code&gt;&lt;/pre&gt;
-&lt;pre&gt;&lt;code&gt;## # A tibble: 6 × 3_x000D_
-##   country      year population_x000D_
-##   &amp;lt;chr&amp;gt;       &amp;lt;dbl&amp;gt;      &amp;lt;dbl&amp;gt;_x000D_
-## 1 Afghanistan  1995   17586073_x000D_
-## 2 Afghanistan  1996   18415307_x000D_
-## 3 Afghanistan  1997   19021226_x000D_
-## 4 Afghanistan  1998   19496836_x000D_
-## 5 Afghanistan  1999   19987071_x000D_
+&lt;pre&gt;&lt;code&gt;## # A tibble: 6 × 3
+##   country      year population
+##   &amp;lt;chr&amp;gt;       &amp;lt;dbl&amp;gt;      &amp;lt;dbl&amp;gt;
+## 1 Afghanistan  1995   17586073
+## 2 Afghanistan  1996   18415307
+## 3 Afghanistan  1997   19021226
+## 4 Afghanistan  1998   19496836
+## 5 Afghanistan  1999   19987071
 ## 6 Afghanistan  2000   20595360&lt;/code&gt;&lt;/pre&gt;
-&lt;pre class="r"&gt;&lt;code&gt;# Créer un graphique linéaire de la populatin par année_x000D_
-ggplot(data = afg_pop, _x000D_
-       mapping = aes(x = year, y = population)) +_x000D_
+&lt;pre class="r"&gt;&lt;code&gt;# Créer un graphique linéaire de la populatin par année
+ggplot(data = afg_pop, 
+       mapping = aes(x = year, y = population)) +
   geom_line()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-9-1.png" width="672"&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/e5AB2PN.png" width="672"&gt;&lt;/p&gt;
 &lt;p&gt;Nous pouvons contrôler les graduations des axes x et y continus avec &lt;code&gt;scale_*_continuous&lt;/code&gt;.&lt;/p&gt;
 &lt;p&gt;Quelle fonction pouvons-nous utiliser pour créer un vecteur numérique pour les graduations ?&lt;/p&gt;</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;div id="a-10" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;seq()&lt;/code&gt; ou &lt;code&gt;c()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;seq()&lt;/code&gt; ou &lt;code&gt;c()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>&lt;div id="b-10" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;seq()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;seq()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>&lt;div id="c-2" class="section level2"&gt;_x000D_
-&lt;h2&gt;C&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;sequence()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;sequence()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>&lt;div id="d-2" class="section level2"&gt;_x000D_
-&lt;h2&gt;D&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;unique()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;unique()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>&lt;div id="e" class="section level2"&gt;_x000D_
-&lt;h2&gt;E&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;c()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;c()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1152,39 +1054,35 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-10" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Bon travail !&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;code&gt;seq()&lt;/code&gt; et &lt;code&gt;c()&lt;/code&gt; peuvent tous deux créer un vecteur numérique._x000D_
-Par exemple, ces deux morceaux de code produisent le même résultat :&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;# Taper le vecteur manuellement_x000D_
-c(1995, 1998, 2001, 2004, 2007, 2010, 2013)&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;pre&gt;&lt;code&gt;## [1] 1995 1998 2001 2004 2007 2010 2013&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;# Générer une séquence avec des intervalles réguliers_x000D_
-seq(1995, 2013, 3)&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;pre&gt;&lt;code&gt;## [1] 1995 1998 2001 2004 2007 2010 2013&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;Cependant, nous recommandons &lt;code&gt;seq()&lt;/code&gt; car il est plus rapide et garantit que les graduations seront également espacées.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Bon travail !&lt;/p&gt;
+&lt;p&gt;&lt;code&gt;seq()&lt;/code&gt; et &lt;code&gt;c()&lt;/code&gt; peuvent tous deux créer un vecteur numérique.
+Par exemple, ces deux morceaux de code produisent le même résultat :&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Taper le vecteur manuellement
+c(1995, 1998, 2001, 2004, 2007, 2010, 2013)&lt;/code&gt;&lt;/pre&gt;
+&lt;pre&gt;&lt;code&gt;## [1] 1995 1998 2001 2004 2007 2010 2013&lt;/code&gt;&lt;/pre&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Générer une séquence avec des intervalles réguliers
+seq(1995, 2013, 3)&lt;/code&gt;&lt;/pre&gt;
+&lt;pre&gt;&lt;code&gt;## [1] 1995 1998 2001 2004 2007 2010 2013&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;Cependant, nous recommandons &lt;code&gt;seq()&lt;/code&gt; car il est plus rapide et garantit que les graduations seront également espacées.</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-10" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;seq()&lt;/code&gt; et &lt;code&gt;c()&lt;/code&gt; peuvent tous deux créer un vecteur numérique._x000D_
-Par exemple, ces deux fragments de code produisent le même résultat :&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;# Taper le vecteur manuellement_x000D_
-c(1995, 1998, 2001, 2004, 2007, 2010, 2013)&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;pre&gt;&lt;code&gt;## [1] 1995 1998 2001 2004 2007 2010 2013&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;# Générer une séquence avec des intervalles réguliers_x000D_
-seq(1995, 2013, 3)&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;pre&gt;&lt;code&gt;## [1] 1995 1998 2001 2004 2007 2010 2013&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;Cependant, nous recommandons &lt;code&gt;seq()&lt;/code&gt; car il est plus rapide et garantit que les graduations seront également espacées.&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;# Ajouter la couche "scale" avec pour argument "breaks" un vecteur numérique_x000D_
-ggplot(data = afg_pop, _x000D_
-       mapping = aes(x = year, y = population)) +_x000D_
-  geom_line() +_x000D_
-  scale_x_continuous(breaks = seq(1995, 2013, 3))&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-12-1.png" width="672"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;seq()&lt;/code&gt; et &lt;code&gt;c()&lt;/code&gt; peuvent tous deux créer un vecteur numérique.
+Par exemple, ces deux fragments de code produisent le même résultat :&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Taper le vecteur manuellement
+c(1995, 1998, 2001, 2004, 2007, 2010, 2013)&lt;/code&gt;&lt;/pre&gt;
+&lt;pre&gt;&lt;code&gt;## [1] 1995 1998 2001 2004 2007 2010 2013&lt;/code&gt;&lt;/pre&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Générer une séquence avec des intervalles réguliers
+seq(1995, 2013, 3)&lt;/code&gt;&lt;/pre&gt;
+&lt;pre&gt;&lt;code&gt;## [1] 1995 1998 2001 2004 2007 2010 2013&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;Cependant, nous recommandons &lt;code&gt;seq()&lt;/code&gt; car il est plus rapide et garantit que les graduations seront également espacées.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Ajouter la couche "scale" avec pour argument "breaks" un vecteur numérique
+ggplot(data = afg_pop, 
+       mapping = aes(x = year, y = population)) +
+  geom_line() +
+  scale_x_continuous(breaks = seq(1995, 2013, 3))&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/WFvCZno.png" width="672"&gt;</t>
         </is>
       </c>
     </row>
@@ -1206,53 +1104,41 @@
         <is>
           <t>&lt;p&gt;Le code ci-dessous tente de visualiser et de comparer le PIB par habitant au fil du temps pour les pays de l’Afrique de l’Ouest.&lt;/p&gt;
 &lt;p&gt;Cependant, le graphique résultant ne nous permet pas de distinguer les pays.&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;pacman::p_load(gapminder)_x000D_
-_x000D_
-gap_wafr &amp;lt;- gapminder::gapminder %&amp;gt;% _x000D_
-  filter(country %in% c("Nigeria", "Ghana", "Guinea", "Senegal"))_x000D_
-_x000D_
-ggplot(data = gap_wafr, _x000D_
-       mapping = aes(y = gdpPercap, x = year)) +_x000D_
-  geom_line() +_x000D_
+&lt;pre class="r"&gt;&lt;code&gt;pacman::p_load(gapminder)
+gap_wafr &amp;lt;- gapminder::gapminder %&amp;gt;% 
+  filter(country %in% c("Nigeria", "Ghana", "Guinea", "Senegal"))
+ggplot(data = gap_wafr, 
+       mapping = aes(y = gdpPercap, x = year)) +
+  geom_line() +
   geom_point()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-13-1.png" width="672"&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/MZOXj4Y.png" width="672"&gt;&lt;/p&gt;
 &lt;p&gt;Quel esthétique pouvez-vous ajouter afin de visualiser &lt;em&gt;et&lt;/em&gt; comparer les tendances entre les pays ?&lt;/p&gt;
 &lt;p&gt;Indice : Utilisez le package &lt;code&gt;gapminder&lt;/code&gt; et essayez ces options sur R&lt;/p&gt;</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>&lt;div id="a-11" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;color = country&lt;/code&gt; comme esthétique fixe&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;color = country&lt;/code&gt; comme esthétique fixe</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>&lt;div id="b-11" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;color = continent&lt;/code&gt; comme mapping esthétique&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;color = continent&lt;/code&gt; comme mapping esthétique</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>&lt;div id="c-3" class="section level2"&gt;_x000D_
-&lt;h2&gt;C&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;fill = country&lt;/code&gt; comme mapping esthétique&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;fill = country&lt;/code&gt; comme mapping esthétique</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>&lt;div id="d-3" class="section level2"&gt;_x000D_
-&lt;h2&gt;D&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;group = country&lt;/code&gt; comme esthétique fixe&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;group = country&lt;/code&gt; comme esthétique fixe</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>&lt;div id="e-1" class="section level2"&gt;_x000D_
-&lt;h2&gt;E&lt;/h2&gt;_x000D_
-&lt;p&gt;Aucune de ces options ne produira le résultat souhaité.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Aucune de ces options ne produira le résultat souhaité.</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1262,116 +1148,112 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-11" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Bonne réflexion !&lt;/p&gt;_x000D_
-&lt;p&gt;Si vous essayez ces différentes options sur R, vous verrez qu’aucune d’elles ne créera un graphique qui vous indique à quelle ligne correspond chaque pays._x000D_
-Certaines d’entre elles pourraient séparer les lignes, mais il n’y aura pas d’indication visuelle pour savoir laquelle correspond chaque pays.&lt;/p&gt;_x000D_
+          <t>Bonne réflexion !&lt;/p&gt;
+&lt;p&gt;Si vous essayez ces différentes options sur R, vous verrez qu’aucune d’elles ne créera un graphique qui vous indique à quelle ligne correspond chaque pays.
+Certaines d’entre elles pourraient séparer les lignes, mais il n’y aura pas d’indication visuelle pour savoir laquelle correspond chaque pays.&lt;/p&gt;
 &lt;ul&gt;
 &lt;li&gt;
-&lt;code&gt;color = country&lt;/code&gt; comme esthétique fixe ne donne pas le résultat recherché. Cela fonctionnerait comme un &lt;em&gt;mapping&lt;/em&gt;, mais pas comme une esthétique fixe. Les esthétiques fixes sont définies par une valeur constante qui ne varie pas avec les données.&lt;/li&gt;_x000D_
+&lt;code&gt;color = country&lt;/code&gt; comme esthétique fixe ne donne pas le résultat recherché. Cela fonctionnerait comme un &lt;em&gt;mapping&lt;/em&gt;, mais pas comme une esthétique fixe. Les esthétiques fixes sont définies par une valeur constante qui ne varie pas avec les données.&lt;/li&gt;
 &lt;/ul&gt;
-&lt;pre class="r"&gt;&lt;code&gt;# Color en tant qu’esthétique fixe_x000D_
-ggplot(data = gap_wafr, _x000D_
-       mapping = aes(y = gdpPercap, x = year)) +_x000D_
-  geom_line(color = "forestgreen") +_x000D_
-  geom_point(color = "red")&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-14-1.png" width="672"&gt;&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;# Color mappé à country_x000D_
-ggplot(data = gap_wafr, _x000D_
-       mapping = aes(y = gdpPercap, x = year, color = country)) +_x000D_
-  geom_line() +_x000D_
-  geom_point()&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-14-2.png" width="672"&gt;&lt;/p&gt;_x000D_
+&lt;pre class="r"&gt;&lt;code&gt;# Color en tant qu’esthétique fixe
+ggplot(data = gap_wafr, 
+       mapping = aes(y = gdpPercap, x = year)) +
+  geom_line(color = "forestgreen") +
+  geom_point(color = "red")&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/6o2P6RA.png" width="672"&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Color mappé à country
+ggplot(data = gap_wafr, 
+       mapping = aes(y = gdpPercap, x = year, color = country)) +
+  geom_line() +
+  geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/EJRvRwb.png" width="672"&gt;&lt;/p&gt;
 &lt;ul&gt;
 &lt;li&gt;
-&lt;code&gt;fill = country&lt;/code&gt; séparera les données car il essaie de donner une couleur de remplissage distincte pour chaque pays, mais toutes les lignes et les points resteront noirs. Ces géométries ne répondront pas à l’argument &lt;code&gt;fill&lt;/code&gt;, car &lt;code&gt;fill&lt;/code&gt; est destiné à être utilisé avec des géométries qui ont une notion de forme à remplir, ce qui n’est pas le cas des lignes.&lt;/li&gt;_x000D_
+&lt;code&gt;fill = country&lt;/code&gt; séparera les données car il essaie de donner une couleur de remplissage distincte pour chaque pays, mais toutes les lignes et les points resteront noirs. Ces géométries ne répondront pas à l’argument &lt;code&gt;fill&lt;/code&gt;, car &lt;code&gt;fill&lt;/code&gt; est destiné à être utilisé avec des géométries qui ont une notion de forme à remplir, ce qui n’est pas le cas des lignes.&lt;/li&gt;
 &lt;/ul&gt;
-&lt;pre class="r"&gt;&lt;code&gt;    ggplot(data = gap_wafr, _x000D_
-           mapping = aes(y = gdpPercap, x = year, fill = country)) +_x000D_
-      geom_line() +_x000D_
-      geom_point()&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-15-1.png" width="672"&gt;&lt;/p&gt;_x000D_
+&lt;pre class="r"&gt;&lt;code&gt;    ggplot(data = gap_wafr, 
+           mapping = aes(y = gdpPercap, x = year, fill = country)) +
+      geom_line() +
+      geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/T8UpG87.png" width="672"&gt;&lt;/p&gt;
 &lt;ul&gt;
 &lt;li&gt;
-&lt;code&gt;group = country&lt;/code&gt; séparera les lignes, mais là encore elles seront toutes de la même couleur&lt;/li&gt;_x000D_
+&lt;code&gt;group = country&lt;/code&gt; séparera les lignes, mais là encore elles seront toutes de la même couleur&lt;/li&gt;
 &lt;/ul&gt;
-&lt;pre class="r"&gt;&lt;code&gt;    ggplot(data = gap_wafr, _x000D_
-           mapping = aes(y = gdpPercap, x = year, group = country)) +_x000D_
-      geom_line() +_x000D_
-      geom_point()&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-16-1.png" width="672"&gt;&lt;/p&gt;_x000D_
+&lt;pre class="r"&gt;&lt;code&gt;    ggplot(data = gap_wafr, 
+           mapping = aes(y = gdpPercap, x = year, group = country)) +
+      geom_line() +
+      geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/xomcXA5.png" width="672"&gt;&lt;/p&gt;
 &lt;ul&gt;
 &lt;li&gt;
-&lt;code&gt;color = continent&lt;/code&gt; n’aidera pas non plus&lt;/li&gt;_x000D_
+&lt;code&gt;color = continent&lt;/code&gt; n’aidera pas non plus&lt;/li&gt;
 &lt;/ul&gt;
-&lt;pre class="r"&gt;&lt;code&gt;    ggplot(data = gap_wafr, _x000D_
-           mapping = aes(y = gdpPercap, x = year, color = continent)) +_x000D_
-      geom_line() +_x000D_
-      geom_point()&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-17-1.png" width="672"&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;La couleur des points peut être modifiée avec &lt;code&gt;fill&lt;/code&gt; si &lt;code&gt;shape&lt;/code&gt; est attribué à une forme remplissable.&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = gap_wafr, _x000D_
-       mapping = aes(y = gdpPercap, x = year, fill = country)) +_x000D_
-  geom_line() +_x000D_
-  geom_point(shape = 23)&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-18-1.png" width="672"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+&lt;pre class="r"&gt;&lt;code&gt;    ggplot(data = gap_wafr, 
+           mapping = aes(y = gdpPercap, x = year, color = continent)) +
+      geom_line() +
+      geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/zF1JB77.png" width="672"&gt;&lt;/p&gt;
+&lt;p&gt;La couleur des points peut être modifiée avec &lt;code&gt;fill&lt;/code&gt; si &lt;code&gt;shape&lt;/code&gt; est attribué à une forme remplissable.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = gap_wafr, 
+       mapping = aes(y = gdpPercap, x = year, fill = country)) +
+  geom_line() +
+  geom_point(shape = 23)&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/VQ5iuO0.png" width="672"&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-11" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Si vous essayez ces différentes options sur R, vous verrez qu’aucune d’elles ne créera un graphique qui vous indique à quelle ligne correspond chaque pays._x000D_
-Certaines d’entre elles pourraient séparer les lignes, mais il n’y aura pas d’indication visuelle pour savoir laquelle correspond chaque pays.&lt;/p&gt;_x000D_
+          <t>Si vous essayez ces différentes options sur R, vous verrez qu’aucune d’elles ne créera un graphique qui vous indique à quelle ligne correspond chaque pays.
+Certaines d’entre elles pourraient séparer les lignes, mais il n’y aura pas d’indication visuelle pour savoir laquelle correspond chaque pays.&lt;/p&gt;
 &lt;ul&gt;
 &lt;li&gt;
-&lt;code&gt;color = country&lt;/code&gt; comme esthétique fixe ne donne pas le résultat recherché. Cela fonctionnerait comme un &lt;em&gt;mapping&lt;/em&gt;, mais pas comme une esthétique fixe. Les esthétiques fixes sont définies par une valeur constante qui ne varie pas avec les données.&lt;/li&gt;_x000D_
+&lt;code&gt;color = country&lt;/code&gt; comme esthétique fixe ne donne pas le résultat recherché. Cela fonctionnerait comme un &lt;em&gt;mapping&lt;/em&gt;, mais pas comme une esthétique fixe. Les esthétiques fixes sont définies par une valeur constante qui ne varie pas avec les données.&lt;/li&gt;
 &lt;/ul&gt;
-&lt;pre class="r"&gt;&lt;code&gt;# Color en tant qu’esthétique fixe_x000D_
-ggplot(data = gap_wafr, _x000D_
-       mapping = aes(y = gdpPercap, x = year)) +_x000D_
-  geom_line(color = "forestgreen") +_x000D_
-  geom_point(color = "red")&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-19-1.png" width="672"&gt;&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;# Color mappé à country_x000D_
-ggplot(data = gap_wafr, _x000D_
-       mapping = aes(y = gdpPercap, x = year, color = country)) +_x000D_
-  geom_line() +_x000D_
-  geom_point()&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-19-2.png" width="672"&gt;&lt;/p&gt;_x000D_
+&lt;pre class="r"&gt;&lt;code&gt;# Color en tant qu’esthétique fixe
+ggplot(data = gap_wafr, 
+       mapping = aes(y = gdpPercap, x = year)) +
+  geom_line(color = "forestgreen") +
+  geom_point(color = "red")&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/ktPTKzO.png" width="672"&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Color mappé à country
+ggplot(data = gap_wafr, 
+       mapping = aes(y = gdpPercap, x = year, color = country)) +
+  geom_line() +
+  geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/QiJ0iAr.png" width="672"&gt;&lt;/p&gt;
 &lt;ul&gt;
 &lt;li&gt;
-&lt;p&gt;&lt;code&gt;fill = country&lt;/code&gt; séparera les données car il essaie de donner une couleur de remplissage distincte pour chaque pays, mais toutes les lignes et les points resteront noirs._x000D_
-Ces géométries ne répondront pas à l’argument &lt;code&gt;fill&lt;/code&gt;, car &lt;code&gt;fill&lt;/code&gt; est destiné à être utilisé avec des géométries qui ont une notion de forme à remplir, ce qui n’est pas le cas des lignes.&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = gap_wafr, _x000D_
-       mapping = aes(y = gdpPercap, x = year, fill = country)) +_x000D_
-  geom_line() +_x000D_
-  geom_point()&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-20-1.png" width="672"&gt;&lt;/p&gt;
-&lt;/li&gt;_x000D_
-&lt;li&gt;&lt;p&gt;&lt;code&gt;group = country&lt;/code&gt; séparera les lignes, mais là encore elles seront toutes de la même couleur&lt;/p&gt;&lt;/li&gt;_x000D_
+&lt;p&gt;&lt;code&gt;fill = country&lt;/code&gt; séparera les données car il essaie de donner une couleur de remplissage distincte pour chaque pays, mais toutes les lignes et les points resteront noirs.
+Ces géométries ne répondront pas à l’argument &lt;code&gt;fill&lt;/code&gt;, car &lt;code&gt;fill&lt;/code&gt; est destiné à être utilisé avec des géométries qui ont une notion de forme à remplir, ce qui n’est pas le cas des lignes.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = gap_wafr, 
+       mapping = aes(y = gdpPercap, x = year, fill = country)) +
+  geom_line() +
+  geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/s5OWOU5.png" width="672"&gt;&lt;/p&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;p&gt;&lt;code&gt;group = country&lt;/code&gt; séparera les lignes, mais là encore elles seront toutes de la même couleur&lt;/p&gt;&lt;/li&gt;
 &lt;/ul&gt;
-&lt;pre class="r"&gt;&lt;code&gt;    ggplot(data = gap_wafr, _x000D_
-           mapping = aes(y = gdpPercap, x = year, group = country)) +_x000D_
-      geom_line() +_x000D_
-      geom_point()&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-21-1.png" width="672"&gt;&lt;/p&gt;_x000D_
+&lt;pre class="r"&gt;&lt;code&gt;    ggplot(data = gap_wafr, 
+           mapping = aes(y = gdpPercap, x = year, group = country)) +
+      geom_line() +
+      geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/lfL9Api.png" width="672"&gt;&lt;/p&gt;
 &lt;ul&gt;
 &lt;li&gt;
-&lt;code&gt;color = continent&lt;/code&gt; n’aidera pas non plus&lt;/li&gt;_x000D_
+&lt;code&gt;color = continent&lt;/code&gt; n’aidera pas non plus&lt;/li&gt;
 &lt;/ul&gt;
-&lt;pre class="r"&gt;&lt;code&gt;    ggplot(data = gap_wafr, _x000D_
-           mapping = aes(y = gdpPercap, x = year, color = continent)) +_x000D_
-      geom_line() +_x000D_
-      geom_point()&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-22-1.png" width="672"&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;La couleur des points peut être modifiée avec &lt;code&gt;fill&lt;/code&gt; si &lt;code&gt;shape&lt;/code&gt; est attribué à une forme remplissable.&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = gap_wafr, _x000D_
-       mapping = aes(y = gdpPercap, x = year, fill = country)) +_x000D_
-  geom_line() +_x000D_
-  geom_point(shape = 23)&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="fr_quiz_files/figure-html/unnamed-chunk-23-1.png" width="672"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+&lt;pre class="r"&gt;&lt;code&gt;    ggplot(data = gap_wafr, 
+           mapping = aes(y = gdpPercap, x = year, color = continent)) +
+      geom_line() +
+      geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/1c8jvvK.png" width="672"&gt;&lt;/p&gt;
+&lt;p&gt;La couleur des points peut être modifiée avec &lt;code&gt;fill&lt;/code&gt; si &lt;code&gt;shape&lt;/code&gt; est attribué à une forme remplissable.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = gap_wafr, 
+       mapping = aes(y = gdpPercap, x = year, fill = country)) +
+  geom_line() +
+  geom_point(shape = 23)&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/Bje2fv4.png" width="672"&gt;</t>
         </is>
       </c>
     </row>
@@ -1396,30 +1278,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>&lt;div id="a-12" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;scale_x_log()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;scale_x_log()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>&lt;div id="b-12" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;scale_x_log10()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;scale_x_log10()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>&lt;div id="c-4" class="section level2"&gt;_x000D_
-&lt;h2&gt;C&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;scale_x_continuous()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;scale_x_continuous()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>&lt;div id="d-4" class="section level2"&gt;_x000D_
-&lt;h2&gt;D&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;scale_log_x()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;scale_log_x()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1429,25 +1303,21 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-12" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Excellente mémoire !&lt;/p&gt;_x000D_
-&lt;p&gt;Notez que les fonctions d’échelle {ggplot2} commencent par &lt;code&gt;scale_*&lt;/code&gt; où &lt;code&gt;*&lt;/code&gt; est le nom du mapping esthétique dont vous voulez modifier l’échelle._x000D_
-Il existe de nombreuses fonctions scale comme &lt;code&gt;scale_fill_*()&lt;/code&gt;, &lt;code&gt;scale_color_*()&lt;/code&gt;, &lt;code&gt;scale_alpha_*()&lt;/code&gt;, &lt;code&gt;scale_size_*()&lt;/code&gt;, etc. qui vous permettent de contrôler l’échelle d’une esthétique spécifique.&lt;/p&gt;_x000D_
-&lt;p&gt;Voici la syntaxe générale utilisée par les fonctions scale :&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/ggplotScales01.png" width="784"&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;Voir la section &lt;em&gt;Scales&lt;/em&gt; dans &lt;a href="https://posit.co/wp-content/uploads/2022/10/data-visualization-1.pdf"&gt;l’aide-mémoire&lt;/a&gt; {ggplot2} pour plus d’informations.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Excellente mémoire !&lt;/p&gt;
+&lt;p&gt;Notez que les fonctions d’échelle {ggplot2} commencent par &lt;code&gt;scale_*&lt;/code&gt; où &lt;code&gt;*&lt;/code&gt; est le nom du mapping esthétique dont vous voulez modifier l’échelle.
+Il existe de nombreuses fonctions scale comme &lt;code&gt;scale_fill_*()&lt;/code&gt;, &lt;code&gt;scale_color_*()&lt;/code&gt;, &lt;code&gt;scale_alpha_*()&lt;/code&gt;, &lt;code&gt;scale_size_*()&lt;/code&gt;, etc. qui vous permettent de contrôler l’échelle d’une esthétique spécifique.&lt;/p&gt;
+&lt;p&gt;Voici la syntaxe générale utilisée par les fonctions scale :&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/PvV07pl.png" width="784"&gt;&lt;/p&gt;
+&lt;p&gt;Voir la section &lt;em&gt;Scales&lt;/em&gt; dans &lt;a href="https://posit.co/wp-content/uploads/2022/10/data-visualization-1.pdf"&gt;l’aide-mémoire&lt;/a&gt; {ggplot2} pour plus d’informations.</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-12" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Notez que les fonctions d’échelle {ggplot2} commencent par &lt;code&gt;scale_*&lt;/code&gt; où &lt;code&gt;*&lt;/code&gt; est le nom du mapping esthétique dont vous voulez modifier l’échelle._x000D_
-Il existe de nombreuses fonctions scale comme &lt;code&gt;scale_fill_*()&lt;/code&gt;, &lt;code&gt;scale_color_*()&lt;/code&gt;, &lt;code&gt;scale_alpha_*()&lt;/code&gt;, &lt;code&gt;scale_size_*()&lt;/code&gt;, etc. qui vous permettent de contrôler l’échelle d’une esthétique spécifique.&lt;/p&gt;_x000D_
-&lt;p&gt;Voici la syntaxe générale utilisée par les fonctions scale :&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/ggplotScales01.png" width="784"&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;Voir la section &lt;em&gt;Scales&lt;/em&gt; dans &lt;a href="https://posit.co/wp-content/uploads/2022/10/data-visualization-1.pdf"&gt;l’aide-mémoire&lt;/a&gt; {ggplot2} pour plus d’informations.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Notez que les fonctions d’échelle {ggplot2} commencent par &lt;code&gt;scale_*&lt;/code&gt; où &lt;code&gt;*&lt;/code&gt; est le nom du mapping esthétique dont vous voulez modifier l’échelle.
+Il existe de nombreuses fonctions scale comme &lt;code&gt;scale_fill_*()&lt;/code&gt;, &lt;code&gt;scale_color_*()&lt;/code&gt;, &lt;code&gt;scale_alpha_*()&lt;/code&gt;, &lt;code&gt;scale_size_*()&lt;/code&gt;, etc. qui vous permettent de contrôler l’échelle d’une esthétique spécifique.&lt;/p&gt;
+&lt;p&gt;Voici la syntaxe générale utilisée par les fonctions scale :&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/sJdq7GC.png" width="784"&gt;&lt;/p&gt;
+&lt;p&gt;Voir la section &lt;em&gt;Scales&lt;/em&gt; dans &lt;a href="https://posit.co/wp-content/uploads/2022/10/data-visualization-1.pdf"&gt;l’aide-mémoire&lt;/a&gt; {ggplot2} pour plus d’informations.</t>
         </is>
       </c>
     </row>
@@ -1472,30 +1342,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>&lt;div id="a-13" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;scale_y_ln()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;scale_y_ln()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>&lt;div id="b-13" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;scale_y_log10()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;scale_y_log10()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>&lt;div id="c-5" class="section level2"&gt;_x000D_
-&lt;h2&gt;C&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;scale_y_continuous()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;scale_y_continuous()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>&lt;div id="d-5" class="section level2"&gt;_x000D_
-&lt;h2&gt;D&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;scale_log10_y()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;scale_log10_y()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1505,25 +1367,21 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-13" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Excellente mémoire !&lt;/p&gt;_x000D_
-&lt;p&gt;Notez que les fonctions d’échelle {ggplot2} commencent par &lt;code&gt;scale_*&lt;/code&gt; où &lt;code&gt;*&lt;/code&gt; est le nom du mapping esthétique dont vous voulez modifier l’échelle._x000D_
-Il existe de nombreuses fonctions scale comme &lt;code&gt;scale_fill_*()&lt;/code&gt;, &lt;code&gt;scale_color_*()&lt;/code&gt;, &lt;code&gt;scale_alpha_*()&lt;/code&gt;, &lt;code&gt;scale_size_*()&lt;/code&gt;, etc. qui vous permettent de contrôler l’échelle d’une ésthétique spécifique.&lt;/p&gt;_x000D_
-&lt;p&gt;Voici la syntaxe générale utilisée par les fonctions scale :&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/ggplotScales01.png" width="784"&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;Voir la section &lt;em&gt;Scales&lt;/em&gt; dans &lt;a href="https://posit.co/wp-content/uploads/2022/10/data-visualization-1.pdf"&gt;l’aide-mémoire&lt;/a&gt; {ggplot2} pour plus d’informations.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Excellente mémoire !&lt;/p&gt;
+&lt;p&gt;Notez que les fonctions d’échelle {ggplot2} commencent par &lt;code&gt;scale_*&lt;/code&gt; où &lt;code&gt;*&lt;/code&gt; est le nom du mapping esthétique dont vous voulez modifier l’échelle.
+Il existe de nombreuses fonctions scale comme &lt;code&gt;scale_fill_*()&lt;/code&gt;, &lt;code&gt;scale_color_*()&lt;/code&gt;, &lt;code&gt;scale_alpha_*()&lt;/code&gt;, &lt;code&gt;scale_size_*()&lt;/code&gt;, etc. qui vous permettent de contrôler l’échelle d’une ésthétique spécifique.&lt;/p&gt;
+&lt;p&gt;Voici la syntaxe générale utilisée par les fonctions scale :&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/Jz5t0QL.png" width="784"&gt;&lt;/p&gt;
+&lt;p&gt;Voir la section &lt;em&gt;Scales&lt;/em&gt; dans &lt;a href="https://posit.co/wp-content/uploads/2022/10/data-visualization-1.pdf"&gt;l’aide-mémoire&lt;/a&gt; {ggplot2} pour plus d’informations.</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-13" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Notez que les fonctions d’échelle {ggplot2} commencent par &lt;code&gt;scale_*&lt;/code&gt; où &lt;code&gt;*&lt;/code&gt; est le nom du mapping esthétique dont vous voulez modifier l’échelle._x000D_
-Il existe de nombreuses fonctions scale comme &lt;code&gt;scale_fill_*()&lt;/code&gt;, &lt;code&gt;scale_color_*()&lt;/code&gt;, &lt;code&gt;scale_alpha_*()&lt;/code&gt;, &lt;code&gt;scale_size_*()&lt;/code&gt;, etc. qui vous permettent de contrôler l’échelle d’une ésthétique spécifique.&lt;/p&gt;_x000D_
-&lt;p&gt;Voici la syntaxe générale utilisée par les fonctions scale :&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/ggplotScales01.png" width="784"&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;Voir la section &lt;em&gt;Scales&lt;/em&gt; dans &lt;a href="https://posit.co/wp-content/uploads/2022/10/data-visualization-1.pdf"&gt;l’aide-mémoire&lt;/a&gt; {ggplot2} pour plus d’informations.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Notez que les fonctions d’échelle {ggplot2} commencent par &lt;code&gt;scale_*&lt;/code&gt; où &lt;code&gt;*&lt;/code&gt; est le nom du mapping esthétique dont vous voulez modifier l’échelle.
+Il existe de nombreuses fonctions scale comme &lt;code&gt;scale_fill_*()&lt;/code&gt;, &lt;code&gt;scale_color_*()&lt;/code&gt;, &lt;code&gt;scale_alpha_*()&lt;/code&gt;, &lt;code&gt;scale_size_*()&lt;/code&gt;, etc. qui vous permettent de contrôler l’échelle d’une ésthétique spécifique.&lt;/p&gt;
+&lt;p&gt;Voici la syntaxe générale utilisée par les fonctions scale :&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://i.imgur.com/KiHpLDI.png" width="784"&gt;&lt;/p&gt;
+&lt;p&gt;Voir la section &lt;em&gt;Scales&lt;/em&gt; dans &lt;a href="https://posit.co/wp-content/uploads/2022/10/data-visualization-1.pdf"&gt;l’aide-mémoire&lt;/a&gt; {ggplot2} pour plus d’informations.</t>
         </is>
       </c>
     </row>
